--- a/PotencialTemp.xlsx
+++ b/PotencialTemp.xlsx
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>20.88881064030132</v>
+        <v>25.74597222222222</v>
       </c>
       <c r="D2">
-        <v>21.03448983050847</v>
+        <v>25.77625555555556</v>
       </c>
       <c r="E2">
-        <v>20.73541195856874</v>
+        <v>25.71638333333333</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -438,13 +438,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>20.03841666666667</v>
+        <v>25.44958888888889</v>
       </c>
       <c r="D3">
-        <v>20.18327777777777</v>
+        <v>25.47982777777777</v>
       </c>
       <c r="E3">
-        <v>19.88801111111111</v>
+        <v>25.42037777777778</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,13 +455,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>19.14771111111112</v>
+        <v>25.10044444444445</v>
       </c>
       <c r="D4">
-        <v>19.28096666666668</v>
+        <v>25.13097777777778</v>
       </c>
       <c r="E4">
-        <v>19.00985</v>
+        <v>25.07139444444445</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>18.48796666666667</v>
+        <v>24.68712222222222</v>
       </c>
       <c r="D5">
-        <v>18.62104444444445</v>
+        <v>24.71743888888889</v>
       </c>
       <c r="E5">
-        <v>18.34891111111111</v>
+        <v>24.65832777777778</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -489,13 +489,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>17.77488888888889</v>
+        <v>24.40192777777778</v>
       </c>
       <c r="D6">
-        <v>17.90827777777778</v>
+        <v>24.43213888888889</v>
       </c>
       <c r="E6">
-        <v>17.63795</v>
+        <v>24.3731111111111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -506,13 +506,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>17.22047777777778</v>
+        <v>24.09618333333333</v>
       </c>
       <c r="D7">
-        <v>17.34951111111111</v>
+        <v>24.12642777777778</v>
       </c>
       <c r="E7">
-        <v>17.08659444444444</v>
+        <v>24.06736111111111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -523,13 +523,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>17.26412241054614</v>
+        <v>24.24211666666667</v>
       </c>
       <c r="D8">
-        <v>17.39874802259887</v>
+        <v>24.27467222222223</v>
       </c>
       <c r="E8">
-        <v>17.12709934086628</v>
+        <v>24.21036666666667</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>19.7504374047187</v>
+        <v>25.26056666666667</v>
       </c>
       <c r="D9">
-        <v>19.86904403508772</v>
+        <v>25.30162777777779</v>
       </c>
       <c r="E9">
-        <v>19.62573153458359</v>
+        <v>25.22125555555555</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -557,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>23.17774444444444</v>
+        <v>26.93897777777778</v>
       </c>
       <c r="D10">
-        <v>23.31348888888889</v>
+        <v>26.98923888888888</v>
       </c>
       <c r="E10">
-        <v>23.03397777777777</v>
+        <v>26.89051666666667</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>26.44062777777778</v>
+        <v>28.52725555555555</v>
       </c>
       <c r="D11">
-        <v>26.60559444444444</v>
+        <v>28.5843</v>
       </c>
       <c r="E11">
-        <v>26.26771111111112</v>
+        <v>28.47170555555555</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -591,13 +591,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>29.28335056497175</v>
+        <v>29.69133333333333</v>
       </c>
       <c r="D12">
-        <v>29.47672005649718</v>
+        <v>29.75181111111111</v>
       </c>
       <c r="E12">
-        <v>29.08327608286253</v>
+        <v>29.63300555555555</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>31.48312109227872</v>
+        <v>30.52667222222222</v>
       </c>
       <c r="D13">
-        <v>31.69611525423728</v>
+        <v>30.59128888888889</v>
       </c>
       <c r="E13">
-        <v>31.26519943502825</v>
+        <v>30.46357777777778</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -625,13 +625,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>32.94236111111111</v>
+        <v>31.20972222222223</v>
       </c>
       <c r="D14">
-        <v>33.15273333333334</v>
+        <v>31.27466666666665</v>
       </c>
       <c r="E14">
-        <v>32.72665555555556</v>
+        <v>31.14652777777778</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -642,13 +642,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>33.93117777777778</v>
+        <v>31.63162222222223</v>
       </c>
       <c r="D15">
-        <v>34.14115555555554</v>
+        <v>31.69056111111111</v>
       </c>
       <c r="E15">
-        <v>33.71480555555555</v>
+        <v>31.57468888888888</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -659,13 +659,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>34.47857777777777</v>
+        <v>31.63937777777777</v>
       </c>
       <c r="D16">
-        <v>34.6705</v>
+        <v>31.69335555555556</v>
       </c>
       <c r="E16">
-        <v>34.27967222222222</v>
+        <v>31.58637222222222</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -676,13 +676,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>34.59133888888889</v>
+        <v>31.24893333333334</v>
       </c>
       <c r="D17">
-        <v>34.74777777777778</v>
+        <v>31.29491666666667</v>
       </c>
       <c r="E17">
-        <v>34.42751666666666</v>
+        <v>31.20367222222223</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -693,13 +693,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>34.00769444444445</v>
+        <v>30.23178333333333</v>
       </c>
       <c r="D18">
-        <v>34.12882777777778</v>
+        <v>30.27362777777778</v>
       </c>
       <c r="E18">
-        <v>33.88108888888889</v>
+        <v>30.19137777777778</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -710,13 +710,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>31.64142777777777</v>
+        <v>28.7947888888889</v>
       </c>
       <c r="D19">
-        <v>31.76162777777778</v>
+        <v>28.83028333333333</v>
       </c>
       <c r="E19">
-        <v>31.51608888888888</v>
+        <v>28.76077222222222</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -727,13 +727,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>28.25278333333333</v>
+        <v>27.79417777777779</v>
       </c>
       <c r="D20">
-        <v>28.38928888888888</v>
+        <v>27.82683333333334</v>
       </c>
       <c r="E20">
-        <v>28.11069444444444</v>
+        <v>27.76265555555556</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -744,13 +744,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>26.13932777777778</v>
+        <v>27.40946666666667</v>
       </c>
       <c r="D21">
-        <v>26.28693888888889</v>
+        <v>27.44018888888889</v>
       </c>
       <c r="E21">
-        <v>25.98727222222222</v>
+        <v>27.37997222222223</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -761,13 +761,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>24.68149444444445</v>
+        <v>27.09495555555556</v>
       </c>
       <c r="D22">
-        <v>24.83822222222222</v>
+        <v>27.12496666666666</v>
       </c>
       <c r="E22">
-        <v>24.51788888888889</v>
+        <v>27.06585</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -778,13 +778,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>23.5785111111111</v>
+        <v>26.76662222222222</v>
       </c>
       <c r="D23">
-        <v>23.74089444444444</v>
+        <v>26.79663333333334</v>
       </c>
       <c r="E23">
-        <v>23.40886111111111</v>
+        <v>26.73742777777778</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -795,13 +795,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>22.79039444444445</v>
+        <v>26.4468</v>
       </c>
       <c r="D24">
-        <v>22.95821666666666</v>
+        <v>26.47662222222222</v>
       </c>
       <c r="E24">
-        <v>22.61518333333333</v>
+        <v>26.41763333333333</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -812,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>21.21272777777779</v>
+        <v>25.27944444444444</v>
       </c>
       <c r="D25">
-        <v>21.36943333333333</v>
+        <v>25.3085611111111</v>
       </c>
       <c r="E25">
-        <v>21.04933333333333</v>
+        <v>25.25176666666666</v>
       </c>
     </row>
   </sheetData>
